--- a/Spider/a.xlsx
+++ b/Spider/a.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\签到\Spider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\新建文件夹 (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA779B02-BA53-473D-878E-644617DB9DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124744EA-8EDF-4297-A0B8-C5D04BFA08B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,655 +339,1395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:A276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="F277" sqref="F277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>17014541765</v>
+        <v>16571302004</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>17050822672</v>
+        <v>16211729003</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>17000650766</v>
+        <v>17090641283</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>17140941200</v>
+        <v>16232408376</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>17026708043</v>
+        <v>16232400265</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>16238822630</v>
+        <v>17084437006</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>17050999813</v>
+        <v>16521589756</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>17016303512</v>
+        <v>16536610520</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>17000654207</v>
+        <v>16536619475</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>17016304658</v>
+        <v>16536766067</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>17000652147</v>
+        <v>16238822633</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>17140940875</v>
+        <v>17050998818</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>16223734012</v>
+        <v>16228207342</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>17020834653</v>
+        <v>16232407495</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>16785371339</v>
+        <v>16536730418</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>16785370776</v>
+        <v>16259503158</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>17000655184</v>
+        <v>17025597049</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17171261565</v>
+        <v>16536582274</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16274745949</v>
+        <v>16521910105</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17040670785</v>
+        <v>16571181252</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>16223738754</v>
+        <v>16571719894</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>15874182074</v>
+        <v>16521910031</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>17000655206</v>
+        <v>16536580940</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>17041518145</v>
+        <v>16232402597</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>16261656278</v>
+        <v>16220711476</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>17017932410</v>
+        <v>17050588979</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>16238822506</v>
+        <v>17108391641</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>16785370695</v>
+        <v>16521423711</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>17016304138</v>
+        <v>16532471373</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>17140945763</v>
+        <v>16756713592</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>17090648860</v>
+        <v>16756681926</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>17171262021</v>
+        <v>16227211534</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>17016304133</v>
+        <v>17144318057</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>16785371361</v>
+        <v>16756662307</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>16740445025</v>
+        <v>16536739737</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>17024464392</v>
+        <v>16232403651</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>17026963728</v>
+        <v>16536581240</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>16223739395</v>
+        <v>17138524472</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>17171261410</v>
+        <v>16210745175</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>17140946763</v>
+        <v>17025597154</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>16785981410</v>
+        <v>16521988719</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>17000652848</v>
+        <v>16798260314</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>16212917882</v>
+        <v>16237904283</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>17171261547</v>
+        <v>16220712818</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>17000652969</v>
+        <v>16232407332</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>17050589608</v>
+        <v>17144318176</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>17026708136</v>
+        <v>16232400605</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>16223735966</v>
+        <v>17024073467</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>16785371331</v>
+        <v>16571303446</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>16756020575</v>
+        <v>16259503393</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>17017932508</v>
+        <v>17090641364</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>17026709124</v>
+        <v>16227211482</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>16785511714</v>
+        <v>17019414518</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>16212911631</v>
+        <v>16756613119</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>16220710647</v>
+        <v>17092643178</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>17000653700</v>
+        <v>16237900436</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>17016303166</v>
+        <v>17024077843</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>17017916658</v>
+        <v>16259504616</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>17024465648</v>
+        <v>16211956024</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>16273445450</v>
+        <v>17025594788</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>17024465520</v>
+        <v>16227211966</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>17000652438</v>
+        <v>16211720988</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>17000650369</v>
+        <v>16756608658</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>16756608611</v>
+        <v>17024079147</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>17016303325</v>
+        <v>16259506423</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>17171261670</v>
+        <v>17112487495</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>16223735896</v>
+        <v>16211729957</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>16785370325</v>
+        <v>16210743756</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>17000651850</v>
+        <v>16571304091</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>17140941033</v>
+        <v>16227212012</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>17014541647</v>
+        <v>17189225443</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>16238822397</v>
+        <v>16259504714</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>17000653326</v>
+        <v>17050588695</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>17000653224</v>
+        <v>16211722142</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>17000651568</v>
+        <v>17145236261</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>17167856960</v>
+        <v>17025594918</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>17140941075</v>
+        <v>17011272895</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>16785370591</v>
+        <v>16211722291</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>17050545608</v>
+        <v>16571714894</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>17000650543</v>
+        <v>17106841263</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>17143467187</v>
+        <v>16537630371</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>16785371081</v>
+        <v>17025596094</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>17069624066</v>
+        <v>16571325751</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>16756020612</v>
+        <v>16756682050</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>17016304809</v>
+        <v>16228202542</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>17000652790</v>
+        <v>17050549181</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>16220710317</v>
+        <v>17138523930</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>17016304207</v>
+        <v>16520967312</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>17016303433</v>
+        <v>17108390440</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>16223737486</v>
+        <v>16521597621</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>16223732056</v>
+        <v>17144318336</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>17016304762</v>
+        <v>17019414699</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>17000653705</v>
+        <v>16536227090</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>17016304262</v>
+        <v>16521630305</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>17000654147</v>
+        <v>17050549144</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>17016304363</v>
+        <v>16536227553</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>17041516095</v>
+        <v>17024071503</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>17040670806</v>
+        <v>17108391203</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>17050580493</v>
+        <v>16536732487</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>16522190930</v>
+        <v>17017915801</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>17000650782</v>
+        <v>17024071537</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>18721440254</v>
+        <v>16521234331</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>17140941260</v>
+        <v>17189227179</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>16740445053</v>
+        <v>16211720537</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>17000654465</v>
+        <v>16536733231</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>16521635466</v>
+        <v>16259504525</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>16238822698</v>
+        <v>16254432661</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>17014541659</v>
+        <v>16232401865</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>18721491806</v>
+        <v>16222652243</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>18640816212</v>
+        <v>16238820144</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>13641797504</v>
+        <v>17108390329</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>16571182183</v>
+        <v>16537630063</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>17140940991</v>
+        <v>16536895720</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>17000655027</v>
+        <v>17025594972</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>17166764490</v>
+        <v>16571717797</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>16522194944</v>
+        <v>17019416491</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>16219420538</v>
+        <v>17028812105</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>17000651091</v>
+        <v>16521622822</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>16536225024</v>
+        <v>17019414468</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>16785371073</v>
+        <v>16521910035</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>16274742974</v>
+        <v>16756072320</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>16536227106</v>
+        <v>16211954361</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>16223736363</v>
+        <v>16732631013</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>16212948481</v>
+        <v>16220711095</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>16785371307</v>
+        <v>16571133150</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>17016303418</v>
+        <v>16756613120</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>16571153054</v>
+        <v>16536221794</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>16212949527</v>
+        <v>16259503401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>16571133416</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>16785902464</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>16238822495</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>17025595961</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>16259506549</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>16237904269</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>16536730215</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>16536765650</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>16571325613</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>16571182009</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>17025820673</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>16756613113</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>16522197557</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>17024075227</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>16259509757</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>16522190908</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>16536894069</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>17052690684</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>16211722240</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>16211722346</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>16250451351</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>17108390681</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>17010011735</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>16521422422</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>17084436912</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>16232402596</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>16211729050</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>17010011553</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>17144318573</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>17025597079</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>16536893641</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>16232402607</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>17050549315</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>16536227135</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>17025597009</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>16756681912</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>17106139157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>16536793005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>16250451529</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>16521620736</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>16536796265</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>17025595971</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>17019414330</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>16536225141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>16740445119</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>16536227960</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>16227211053</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>16571304246</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>16571133008</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>16798260604</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>17166764270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>17127960477</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>17017913209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>16536733771</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>17017915905</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>16536581164</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>16536895625</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>16254437285</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>16764763242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>16263387659</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>17025594929</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>16237900471</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>16259508581</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>16740445104</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>16227211415</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>16211957537</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>16536895726</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>17019413480</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>17019414750</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>16756892951</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>16536613137</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>17108391483</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>17144318203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>17025322604</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>16250451646</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>17108391041</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>16227212056</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>16222651416</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>17019416483</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>16237901542</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>16536227532</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>16250451649</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>17025825836</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>16536583194</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>16731809300</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>17050548482</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>16228347812</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>17025596001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>16536765906</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>16232403434</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>16232401846</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>16232408367</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>16756681982</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>16228346546</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>16211467807</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>17173272985</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>16259508448</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>16522191844</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>16731807258</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>16521629855</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>17025594912</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>17024072565</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>16756340756</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>16210745276</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>16259504740</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>17050545742</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>16521625700</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>17146641327</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>16230871280</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>16254432713</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>16232405189</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>16254432593</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>17084437121</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>16232403813</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>16232406704</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>16259508517</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>17050822693</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>16571181897</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>16571302575</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>17102542163</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>16210743741</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>16521622700</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>17108391213</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>16756892826</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>16571303861</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>17019414670</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>17136266764</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>16232405187</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>17017913241</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>16521627322</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>17050540744</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>16238823144</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>16227212067</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>16756340103</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>16222651774</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>18655049717</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>16571189393</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>17010011483</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>17025327654</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>16536895326</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>17050548857</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>17024075421</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>16521624588</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>16521626277</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>17024077135</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>17019415774</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>16536895393</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>17050588771</v>
       </c>
     </row>
   </sheetData>
